--- a/vgg-gluon/VGGParam.xlsx
+++ b/vgg-gluon/VGGParam.xlsx
@@ -304,6 +304,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -313,6 +318,2104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(36, 36)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.85446714743589702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88301282051282004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89663461538461497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.901241987179487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90675080128205099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90685096153846101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91095753205128205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90885416666666596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90825320512820495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90915464743589702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A170-4970-92EE-5650891E94A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(96, 96)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.86017628205128205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88201121794871795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89643429487179405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90404647435897401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91326121794871795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91676682692307598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.919070512820512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.922976762820512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92628205128205099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92317708333333304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A170-4970-92EE-5650891E94A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(224, 224)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Epoch0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Epoch1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Epoch2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Epoch3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Epoch4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Epoch5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Epoch6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Epoch7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Epoch8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.87459935897435803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89182692307692302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90434695512820495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91276041666666596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92237580128205099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92357772435897401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.926883012820512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93058894230769196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93068910256410198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A170-4970-92EE-5650891E94A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1517876912"/>
+        <c:axId val="1517876080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1517876912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517876080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1517876080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517876912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Epoch9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8604-4FCC-AE41-8BE5348FF802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8604-4FCC-AE41-8BE5348FF802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF99"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8604-4FCC-AE41-8BE5348FF802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8604-4FCC-AE41-8BE5348FF802}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$C$29,Sheet1!$E$29,Sheet1!$G$29:$H$29)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Learning4(VGG-A)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Learning5(VGG-B)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Learning7(VGG-D)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Learning8(VGG-E)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$46,Sheet1!$E$46,Sheet1!$G$46:$H$46)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93068910256410198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93369391025641002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93359375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92578125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8604-4FCC-AE41-8BE5348FF802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1503671520"/>
+        <c:axId val="1503668608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1503671520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503668608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1503668608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1503671520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,15 +2499,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4180740</xdr:colOff>
+      <xdr:colOff>4447440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>874059</xdr:rowOff>
+      <xdr:rowOff>912159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -421,7 +2524,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9513794" y="3832412"/>
+          <a:off x="10306050" y="3810000"/>
           <a:ext cx="4180740" cy="874059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -581,6 +2684,68 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238130</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3295649</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3629025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="차트 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -894,10 +3059,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F50" sqref="F50"/>
+      <selection pane="topRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
